--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1805777.442504252</v>
+        <v>1750825.553220156</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013175</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.7134668821574</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>227.568504268994</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>41.21670505227441</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.59641470936592</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
@@ -1505,10 +1505,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7.253023459091237</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.42857711587135</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>104.599034299007</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>104.0024271027446</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>130.2646119085758</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
@@ -1748,13 +1748,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>126.5613093161859</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>75.61813689207878</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>76.53519509961453</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>189.5177509593821</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>142.0125328254717</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>15.71916615484844</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>228.0934224604167</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2101074720032906</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.0716324031976</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>133.5528404712021</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>38.44565182184095</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>168.2644706750363</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.35340349906477</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>219.8833882876052</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547734</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>35.7304347315135</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,16 +2402,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>117.632083874487</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>208.0379151550095</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.0804113283491</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>7.226885210985951</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>218.5797582054731</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>230.1768325851907</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547734</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -2623,7 +2623,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.329915919762344</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886882</v>
+        <v>32.26959555764061</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -2690,7 +2690,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2702,7 +2702,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.1434003800104</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7418097272727</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>356.4598561360491</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
@@ -2933,13 +2933,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>144.8407193933342</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>70.0336186167382</v>
       </c>
     </row>
     <row r="31">
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706148</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.391899072553016</v>
       </c>
       <c r="S31" t="n">
-        <v>2.474840865017474</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
@@ -3091,13 +3091,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.4660086744124</v>
+        <v>18.76616991959742</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>44.32615362612215</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>8.373183778873766</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706148</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>50.00010435294892</v>
+        <v>81.27715635256043</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027477</v>
+        <v>158.1465426435502</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.216722594183675</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.9743432409925</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>14.32501013152947</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>10.1026790326939</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.91625866685734</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>52.42857711587136</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>146.9266639767871</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.713263303401</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.727105734424545</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>39.17726516022831</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>158.6107100818746</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.9625998440377</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>169.6525880073604</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.4660897532008</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>21.98321868438053</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -3836,7 +3836,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350704</v>
@@ -3872,22 +3872,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>131.0804113283489</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.89828378116018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0562111640185</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>29.20764537286055</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>38.04813570318175</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>78.64929951872674</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.2760455058783</v>
+        <v>264.181828883732</v>
       </c>
       <c r="C11" t="n">
-        <v>988.2760455058783</v>
+        <v>264.181828883732</v>
       </c>
       <c r="D11" t="n">
-        <v>988.2760455058783</v>
+        <v>264.181828883732</v>
       </c>
       <c r="E11" t="n">
-        <v>628.9695133016788</v>
+        <v>264.181828883732</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>264.181828883732</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444518</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887603007</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193758</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292786</v>
+        <v>856.6460009292791</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O11" t="n">
         <v>1460.63278584115</v>
@@ -5077,16 +5077,16 @@
         <v>1715.732642722259</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="W11" t="n">
-        <v>1374.423083302292</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.423083302292</v>
+        <v>1028.194766051695</v>
       </c>
       <c r="Y11" t="n">
-        <v>988.2760455058783</v>
+        <v>642.0477282552808</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.1937644001409</v>
+        <v>307.0767735582572</v>
       </c>
       <c r="C12" t="n">
-        <v>421.7814901331046</v>
+        <v>307.0767735582572</v>
       </c>
       <c r="D12" t="n">
-        <v>261.0013738941363</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="E12" t="n">
-        <v>261.0013738941363</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F12" t="n">
-        <v>100.5736576113804</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G12" t="n">
-        <v>100.5736576113804</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
-        <v>100.5736576113804</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444518</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676441</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207057</v>
+        <v>679.5863020207059</v>
       </c>
       <c r="N12" t="n">
         <v>1082.820066520717</v>
@@ -5153,19 +5153,19 @@
         <v>1234.878304775052</v>
       </c>
       <c r="U12" t="n">
-        <v>1234.878304775052</v>
+        <v>995.3051791025991</v>
       </c>
       <c r="V12" t="n">
-        <v>1234.878304775052</v>
+        <v>752.2254610062332</v>
       </c>
       <c r="W12" t="n">
-        <v>1234.878304775052</v>
+        <v>752.2254610062332</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.370310391748</v>
+        <v>532.7174666229296</v>
       </c>
       <c r="Y12" t="n">
-        <v>789.7296173270761</v>
+        <v>307.0767735582572</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.27281155734553</v>
+        <v>41.64093917675956</v>
       </c>
       <c r="C13" t="n">
-        <v>87.27281155734553</v>
+        <v>41.64093917675956</v>
       </c>
       <c r="D13" t="n">
-        <v>87.27281155734553</v>
+        <v>41.64093917675956</v>
       </c>
       <c r="E13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I13" t="n">
         <v>34.31465285444518</v>
@@ -5202,7 +5202,7 @@
         <v>34.31465285444518</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306433</v>
@@ -5211,40 +5211,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="R13" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="S13" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="T13" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="U13" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="V13" t="n">
-        <v>87.27281155734553</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="W13" t="n">
-        <v>87.27281155734553</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="X13" t="n">
-        <v>87.27281155734553</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.27281155734553</v>
+        <v>41.64093917675956</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1050.584219631687</v>
+        <v>868.9443940078007</v>
       </c>
       <c r="C14" t="n">
-        <v>1050.584219631687</v>
+        <v>515.2014673601453</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.584219631687</v>
+        <v>515.2014673601453</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.584219631687</v>
+        <v>139.9702430554623</v>
       </c>
       <c r="F14" t="n">
-        <v>643.3122502983404</v>
+        <v>139.9702430554623</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T14" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.001102757653</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.001102757653</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X14" t="n">
-        <v>1050.584219631687</v>
+        <v>1246.81029337935</v>
       </c>
       <c r="Y14" t="n">
-        <v>1050.584219631687</v>
+        <v>1246.81029337935</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.4582728022992</v>
+        <v>533.6236769809975</v>
       </c>
       <c r="C15" t="n">
-        <v>339.4582728022992</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="D15" t="n">
-        <v>207.8778567330307</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G15" t="n">
         <v>34.31465285444516</v>
@@ -5387,22 +5387,22 @@
         <v>1536.658373288803</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288803</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.08524761635</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519984</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502752</v>
+        <v>712.1595299079327</v>
       </c>
       <c r="X15" t="n">
-        <v>565.0989658669715</v>
+        <v>712.1595299079327</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4582728022992</v>
+        <v>712.1595299079327</v>
       </c>
     </row>
     <row r="16">
@@ -5466,16 +5466,16 @@
         <v>334.8576753800223</v>
       </c>
       <c r="T16" t="n">
-        <v>111.6229307328437</v>
+        <v>258.475718923377</v>
       </c>
       <c r="U16" t="n">
-        <v>111.6229307328437</v>
+        <v>258.475718923377</v>
       </c>
       <c r="V16" t="n">
-        <v>111.6229307328437</v>
+        <v>258.475718923377</v>
       </c>
       <c r="W16" t="n">
-        <v>111.6229307328437</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X16" t="n">
         <v>34.31465285444516</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1801749823653</v>
+        <v>566.9307241692021</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1801749823653</v>
+        <v>566.9307241692021</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1801749823653</v>
+        <v>225.7467245305887</v>
       </c>
       <c r="E17" t="n">
-        <v>369.9489506776823</v>
+        <v>225.7467245305887</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
         <v>34.31465285444516</v>
@@ -5515,19 +5515,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K17" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292781</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
@@ -5539,28 +5539,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U17" t="n">
-        <v>1266.493077207926</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.046074353914</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="W17" t="n">
-        <v>1123.046074353914</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="X17" t="n">
-        <v>1123.046074353914</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="Y17" t="n">
-        <v>1123.046074353914</v>
+        <v>944.7966235407509</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.9915189529295</v>
+        <v>949.6270488192655</v>
       </c>
       <c r="C18" t="n">
-        <v>504.9915189529295</v>
+        <v>760.2147745522292</v>
       </c>
       <c r="D18" t="n">
-        <v>344.2114027139612</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="E18" t="n">
-        <v>344.2114027139612</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F18" t="n">
-        <v>183.7836864312053</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025871</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025871</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>337.314433165637</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186985</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
@@ -5624,22 +5624,22 @@
         <v>1627.958867440573</v>
       </c>
       <c r="T18" t="n">
-        <v>1413.952574208507</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U18" t="n">
-        <v>1398.074628597549</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="V18" t="n">
-        <v>1398.074628597549</v>
+        <v>1397.561471015909</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.676059327841</v>
+        <v>1128.162901746201</v>
       </c>
       <c r="X18" t="n">
-        <v>909.168064944537</v>
+        <v>1128.162901746201</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.5273718798646</v>
+        <v>1128.162901746201</v>
       </c>
     </row>
     <row r="19">
@@ -5688,28 +5688,28 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.52688262414546</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T19" t="n">
-        <v>34.52688262414546</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U19" t="n">
-        <v>34.52688262414546</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V19" t="n">
-        <v>34.52688262414546</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W19" t="n">
         <v>34.31465285444516</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1204.385328156414</v>
+        <v>951.7197055542955</v>
       </c>
       <c r="C20" t="n">
-        <v>1204.385328156414</v>
+        <v>951.7197055542955</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2013285178008</v>
+        <v>951.7197055542955</v>
       </c>
       <c r="E20" t="n">
-        <v>863.2013285178008</v>
+        <v>576.4884812496125</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9293591844538</v>
+        <v>169.2165119162655</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>169.2165119162655</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>169.2165119162655</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K20" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M20" t="n">
         <v>856.6460009292781</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.548593210149</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.14864459367845</v>
+        <v>707.5392808157953</v>
       </c>
       <c r="C21" t="n">
-        <v>73.14864459367845</v>
+        <v>518.127006548759</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444516</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E21" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G21" t="n">
         <v>34.31465285444516</v>
@@ -5831,10 +5831,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025871</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
         <v>498.4142537443597</v>
@@ -5843,7 +5843,7 @@
         <v>873.3058632974213</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.820066520716</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O21" t="n">
         <v>1395.953100567611</v>
@@ -5855,28 +5855,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007117</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334664</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382982</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="W21" t="n">
-        <v>696.8331849685895</v>
+        <v>1152.687968263771</v>
       </c>
       <c r="X21" t="n">
-        <v>477.3251905852859</v>
+        <v>933.1799738804677</v>
       </c>
       <c r="Y21" t="n">
-        <v>251.6844975206135</v>
+        <v>707.5392808157953</v>
       </c>
     </row>
     <row r="22">
@@ -5925,28 +5925,28 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R22" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4089998231975</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4089998231975</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V22" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W22" t="n">
         <v>34.31465285444516</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>409.5458771591282</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="C23" t="n">
-        <v>409.5458771591282</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="D23" t="n">
-        <v>409.5458771591282</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193752</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295158</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V23" t="n">
-        <v>1159.109798081508</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W23" t="n">
-        <v>1159.109798081508</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X23" t="n">
-        <v>795.6929149555422</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y23" t="n">
-        <v>409.5458771591282</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5472138633875</v>
+        <v>694.4037932199658</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1349395963512</v>
+        <v>504.9915189529295</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1349395963512</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1349395963512</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1349395963512</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025874</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443598</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M24" t="n">
-        <v>873.3058632974214</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007118</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T24" t="n">
-        <v>1448.884598007118</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U24" t="n">
-        <v>1209.311472334665</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V24" t="n">
-        <v>966.2317542382987</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="W24" t="n">
-        <v>966.2317542382987</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="X24" t="n">
-        <v>746.723759854995</v>
+        <v>872.9396461469009</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0830667903226</v>
+        <v>872.9396461469009</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P25" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R25" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W25" t="n">
-        <v>202.4532194928011</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.1022874054281</v>
+        <v>642.0477282552804</v>
       </c>
       <c r="C26" t="n">
-        <v>255.1022874054281</v>
+        <v>642.0477282552804</v>
       </c>
       <c r="D26" t="n">
-        <v>255.1022874054281</v>
+        <v>642.0477282552804</v>
       </c>
       <c r="E26" t="n">
-        <v>255.1022874054281</v>
+        <v>266.8165039505974</v>
       </c>
       <c r="F26" t="n">
-        <v>255.1022874054281</v>
+        <v>266.8165039505974</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444518</v>
+        <v>266.8165039505974</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602996</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N26" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759919</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V26" t="n">
-        <v>618.5191705313939</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W26" t="n">
-        <v>618.5191705313939</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X26" t="n">
-        <v>255.1022874054281</v>
+        <v>1028.194766051694</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.1022874054281</v>
+        <v>642.0477282552804</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.67820428854856</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444518</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444518</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025874</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025874</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L27" t="n">
-        <v>337.314433165637</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186987</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O27" t="n">
         <v>1395.953100567611</v>
@@ -6326,31 +6326,31 @@
         <v>1625.193464940061</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1683.137091653934</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007118</v>
+        <v>1504.062822220479</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775052</v>
+        <v>1290.056528988413</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025991</v>
+        <v>1290.056528988413</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062332</v>
+        <v>1046.976810892048</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365245</v>
+        <v>777.5782416223389</v>
       </c>
       <c r="X27" t="n">
-        <v>263.3188973532209</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.67820428854856</v>
+        <v>558.0702472390352</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444518</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444518</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P28" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R28" t="n">
-        <v>158.7019259655668</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S28" t="n">
-        <v>158.7019259655668</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7019259655668</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444518</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444518</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444518</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444518</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444518</v>
+        <v>43.32097474015944</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.856285470723</v>
+        <v>388.0575795021006</v>
       </c>
       <c r="C29" t="n">
-        <v>797.1133588230673</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505316</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505316</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U29" t="n">
-        <v>1357.66619428615</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.856285470723</v>
+        <v>1089.427599665551</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.856285470723</v>
+        <v>748.1180402455846</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.856285470723</v>
+        <v>748.1180402455846</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.856285470723</v>
+        <v>388.0575795021006</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>585.6584311129453</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>396.246156845909</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444518</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K30" t="n">
-        <v>34.31465285444518</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>317.2197849098234</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M30" t="n">
-        <v>692.1113944628851</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.345158962896</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007118</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025991</v>
+        <v>1388.38574176812</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062332</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="W30" t="n">
-        <v>605.9217040432694</v>
+        <v>875.9074544020451</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>656.3994600187415</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>585.6584311129453</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P31" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.9755581809704</v>
+        <v>260.9755581809702</v>
       </c>
       <c r="R31" t="n">
-        <v>260.9755581809704</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="S31" t="n">
-        <v>258.475718923377</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602996</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193752</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.54859321015</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T32" t="n">
         <v>1195.201146295158</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759919</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="V32" t="n">
-        <v>618.5191705313939</v>
+        <v>618.5191705313932</v>
       </c>
       <c r="W32" t="n">
-        <v>277.2096111114274</v>
+        <v>618.5191705313932</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2096111114274</v>
+        <v>618.5191705313932</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444518</v>
+        <v>599.5634433398807</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.127006548759</v>
+        <v>348.0489150146253</v>
       </c>
       <c r="C33" t="n">
-        <v>518.127006548759</v>
+        <v>348.0489150146253</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3468903097908</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7836864312053</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312053</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444518</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025874</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889815</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676441</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207057</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007118</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T33" t="n">
         <v>1234.878304775052</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025991</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062332</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W33" t="n">
-        <v>752.2254610062332</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="X33" t="n">
-        <v>743.7676996134314</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.127006548759</v>
+        <v>526.5847679415604</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444518</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444518</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444518</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444518</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444518</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P34" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.9755581809704</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R34" t="n">
-        <v>84.8198087665148</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S34" t="n">
-        <v>84.8198087665148</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T34" t="n">
-        <v>84.8198087665148</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444518</v>
+        <v>252.7595376501632</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938.1127679116282</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1127679116282</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="D35" t="n">
-        <v>596.9287682730148</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>194.0586353226777</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>194.0586353226777</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>194.0586353226777</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193758</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292789</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841151</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427093</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T35" t="n">
-        <v>1519.054059427093</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.493077207927</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="V35" t="n">
-        <v>942.3720836633289</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="W35" t="n">
-        <v>938.1127679116282</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="X35" t="n">
-        <v>938.1127679116282</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="Y35" t="n">
-        <v>938.1127679116282</v>
+        <v>601.3306046560247</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.8951292517472</v>
+        <v>492.687296730023</v>
       </c>
       <c r="C36" t="n">
-        <v>624.4828549847109</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7027387457426</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F36" t="n">
         <v>303.2750224629867</v>
@@ -7010,58 +7010,58 @@
         <v>153.8059888862266</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025875</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443598</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M36" t="n">
-        <v>873.3058632974214</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.539627797433</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.672661844327</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.193464940062</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288804</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288804</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U36" t="n">
-        <v>1297.085247616351</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="V36" t="n">
-        <v>1054.005529519985</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.53582231642</v>
+        <v>722.4000174089771</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.53582231642</v>
+        <v>502.8920230256734</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.8951292517472</v>
+        <v>492.687296730023</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L37" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O37" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P37" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q37" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R37" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S37" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T37" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U37" t="n">
-        <v>43.32097474015967</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V37" t="n">
-        <v>43.32097474015967</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="W37" t="n">
-        <v>43.32097474015967</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="X37" t="n">
-        <v>43.32097474015967</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.32097474015967</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.944255165456</v>
+        <v>1132.907021630678</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>1132.907021630678</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>791.7230219920648</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444517</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444517</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602992</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292782</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810154537005</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.810154537005</v>
+        <v>1132.907021630678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.3040340828909</v>
+        <v>344.9599739535374</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8917598158546</v>
+        <v>155.5476996865011</v>
       </c>
       <c r="D39" t="n">
-        <v>361.1116435768863</v>
+        <v>155.5476996865011</v>
       </c>
       <c r="E39" t="n">
-        <v>187.5484396983008</v>
+        <v>155.5476996865011</v>
       </c>
       <c r="F39" t="n">
-        <v>183.7836864312053</v>
+        <v>155.5476996865011</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444517</v>
+        <v>155.5476996865011</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444517</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025872</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
         <v>498.4142537443597</v>
       </c>
       <c r="M39" t="n">
-        <v>873.3058632974213</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O39" t="n">
         <v>1395.953100567611</v>
@@ -7274,31 +7274,31 @@
         <v>1625.193464940061</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440573</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U39" t="n">
-        <v>1627.958867440573</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V39" t="n">
-        <v>1384.879149344207</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W39" t="n">
-        <v>1115.480580074498</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.480580074498</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="Y39" t="n">
-        <v>889.839887009826</v>
+        <v>344.9599739535374</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="C40" t="n">
-        <v>1555.519804255719</v>
+        <v>1547.594076083902</v>
       </c>
       <c r="D40" t="n">
-        <v>1555.519804255719</v>
+        <v>1547.594076083902</v>
       </c>
       <c r="E40" t="n">
-        <v>1555.519804255719</v>
+        <v>1547.594076083902</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196682</v>
+        <v>1415.189620196681</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196682</v>
+        <v>1415.189620196681</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196682</v>
+        <v>1415.189620196681</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196682</v>
+        <v>1415.189620196681</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196682</v>
+        <v>1415.189620196681</v>
       </c>
       <c r="K40" t="n">
         <v>1423.105386587382</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.32208817288</v>
+        <v>1486.322088172879</v>
       </c>
       <c r="M40" t="n">
         <v>1561.571126008531</v>
@@ -7350,34 +7350,34 @@
         <v>1696.305599352132</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>388.0575795021006</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602992</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505316</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505316</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U41" t="n">
-        <v>1357.666194286149</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.666194286149</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.666194286149</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.666194286149</v>
+        <v>937.2897293861347</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.666194286149</v>
+        <v>765.9234788736494</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.3382686120787</v>
+        <v>608.8568420720078</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9259943450423</v>
+        <v>608.8568420720078</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>448.0767258330395</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H42" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025872</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L42" t="n">
         <v>498.4142537443597</v>
       </c>
       <c r="M42" t="n">
-        <v>873.3058632974213</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P42" t="n">
         <v>1625.193464940061</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
         <v>1536.658373288803</v>
       </c>
       <c r="T42" t="n">
-        <v>1322.652080056738</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="U42" t="n">
-        <v>1322.652080056738</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="V42" t="n">
-        <v>1322.652080056738</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.253510787029</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="X42" t="n">
-        <v>1053.253510787029</v>
+        <v>834.4975351366802</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.253510787029</v>
+        <v>608.8568420720078</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1660.279830822097</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C43" t="n">
-        <v>1660.279830822097</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.279830822097</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>1660.279830822097</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.279830822097</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.527291646718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1490.527291646718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1490.527291646718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1660.279830822097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.279830822097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W43" t="n">
-        <v>1660.279830822097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X43" t="n">
-        <v>1660.279830822097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y43" t="n">
-        <v>1660.279830822097</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>306.088603525171</v>
+        <v>860.6632555829353</v>
       </c>
       <c r="C44" t="n">
-        <v>306.088603525171</v>
+        <v>860.6632555829353</v>
       </c>
       <c r="D44" t="n">
-        <v>306.088603525171</v>
+        <v>860.6632555829353</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444517</v>
+        <v>485.4320312782523</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444517</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
         <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292781</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U44" t="n">
-        <v>1357.666194286149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.545200741552</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W44" t="n">
-        <v>692.235641321585</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X44" t="n">
-        <v>692.235641321585</v>
+        <v>1246.810293379349</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.088603525171</v>
+        <v>860.6632555829353</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.9717411220396</v>
+        <v>734.7750647334931</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5594668550033</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="D45" t="n">
-        <v>395.779350616035</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="E45" t="n">
-        <v>222.2161467374495</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F45" t="n">
-        <v>222.2161467374495</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G45" t="n">
-        <v>72.74711316068937</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444517</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L45" t="n">
-        <v>337.314433165637</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186985</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775052</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775052</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775052</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="W45" t="n">
-        <v>965.4797355053432</v>
+        <v>992.754654548031</v>
       </c>
       <c r="X45" t="n">
-        <v>745.9717411220396</v>
+        <v>992.754654548031</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.9717411220396</v>
+        <v>913.3109176604282</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.889614169535</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>1576.889614169535</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.889614169535</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.889614169535</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V46" t="n">
-        <v>1576.889614169535</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8768,16 +8768,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K12" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470665</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888872</v>
       </c>
       <c r="N12" t="n">
         <v>310.6138585746227</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.646382090491613</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9254,16 +9254,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489842003</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504036</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9491,10 +9491,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
-        <v>255.2227828913207</v>
+        <v>59.54645836938562</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9725,10 +9725,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195776</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526876</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>8.646382090491613</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,10 +9965,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O27" t="n">
-        <v>222.2735498630452</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.40936639976314</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>8.646382090491613</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10205,13 +10205,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5711743638669</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>102.141264488257</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10430,10 +10430,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372856</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470648</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>10.68754955674472</v>
+        <v>30.98517405756586</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10834,7 +10834,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189658</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10910,10 +10910,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880646</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526877</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -11147,7 +11147,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880646</v>
       </c>
       <c r="N42" t="n">
         <v>310.6138585746227</v>
@@ -11156,7 +11156,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>10.68754955674452</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11375,16 +11375,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K45" t="n">
-        <v>8.646382090491613</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>301.77688131</v>
+        <v>289.1252727825457</v>
       </c>
       <c r="N45" t="n">
         <v>310.6138585746227</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1808494245548</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>15.76544517947872</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>189.8300549977145</v>
       </c>
       <c r="H11" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>117.9556100243041</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>15.24703649414113</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,10 +23393,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
@@ -23424,7 +23424,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>134.4231177531338</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -23436,7 +23436,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>93.00459219947567</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
         <v>74.58429473553585</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23484,7 +23484,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>312.7995249677015</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
@@ -23554,7 +23554,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>216.8773565064074</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>28.90770316800277</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>140.1432742608257</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23706,7 +23706,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>145.384260308628</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>145.384260308628</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23737,22 +23737,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>213.6814986806314</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>178.8672507836804</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>221.45822826088</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>12.5554984549855</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23949,10 +23949,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734639</v>
       </c>
       <c r="W19" t="n">
-        <v>290.100599617332</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.0156079746358</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027477</v>
+        <v>51.95622173154564</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
@@ -24037,7 +24037,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.7266632547376</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>118.2964226714636</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>98.44011290197534</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.9573035902706</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>215.2679301343994</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24214,19 +24214,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>151.5955237740309</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1493488776385</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24290,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>30.34225936650547</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>9.274999284461074</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706148</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24426,10 +24426,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>159.2302957609862</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972566</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24451,19 +24451,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>198.8188010612354</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>102.101122259814</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>184.1882356046036</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>54.62644197122822</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>136.2663915838536</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706148</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
@@ -24657,7 +24657,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>165.4779332534537</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24694,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>116.1379738818793</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>25.82571128240079</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -24776,10 +24776,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>121.8638641836774</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>153.3506675172874</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>174.3941919203111</v>
+        <v>171.0022928477581</v>
       </c>
       <c r="S31" t="n">
-        <v>221.709347936239</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>288.6213336334641</v>
@@ -24903,7 +24903,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -24937,7 +24937,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.8195587440375</v>
+        <v>363.5193974988525</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>114.8461614504564</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.84345120350704</v>
@@ -25061,7 +25061,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>208.9397306605968</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553583</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
         <v>224.1841888012565</v>
@@ -25131,7 +25131,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>238.6212292805152</v>
+        <v>207.3441772809037</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25159,13 +25159,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>417.3985592667085</v>
@@ -25174,7 +25174,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>27.36251955919761</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547734</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>333.6797412315832</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25238,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>252.3795734454821</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>213.2816071013317</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.7006619981107</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706148</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25368,10 +25368,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>290.3107070893353</v>
@@ -25380,7 +25380,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>164.7126956982971</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>224.5522480848491</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.1639724458418</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>240.0694509913051</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>155.0963333855038</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>79.1191575112353</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>7.846470890097748</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,7 +25560,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>7.846470890097834</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.1246405337956</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25693,10 +25693,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>212.6329794110895</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.28440464446493</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>149.8443531554191</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>46.53650933661919</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7230498523039</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25873,19 +25873,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4227008976176</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>373.9916042671529</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>80.24828696828186</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>144.7349866152989</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26070,13 +26070,13 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
-        <v>36.93959365311451</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>213.7755119897208</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213336334641</v>
@@ -26085,7 +26085,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>551455.1692114507</v>
+        <v>551455.1692114508</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>551455.1692114508</v>
+        <v>551455.1692114507</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>551455.1692114508</v>
+        <v>551455.1692114507</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>551455.169211451</v>
+        <v>551455.1692114507</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>551455.1692114508</v>
+        <v>551455.1692114507</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>551455.1692114508</v>
+        <v>551455.1692114506</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>551455.1692114508</v>
+        <v>551455.1692114507</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="C2" t="n">
         <v>661448.9963823446</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="E2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="F2" t="n">
+        <v>375693.1876893952</v>
+      </c>
+      <c r="G2" t="n">
         <v>375693.1876893953</v>
-      </c>
-      <c r="G2" t="n">
-        <v>375693.1876893954</v>
       </c>
       <c r="H2" t="n">
         <v>375693.1876893953</v>
       </c>
       <c r="I2" t="n">
+        <v>375693.1876893954</v>
+      </c>
+      <c r="J2" t="n">
         <v>375693.1876893953</v>
       </c>
-      <c r="J2" t="n">
-        <v>375693.1876893952</v>
-      </c>
       <c r="K2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="L2" t="n">
-        <v>375693.1876893951</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="M2" t="n">
         <v>375693.1876893954</v>
@@ -26352,10 +26352,10 @@
         <v>375693.1876893954</v>
       </c>
       <c r="O2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="P2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893954</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.070585174914505e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742395</v>
+        <v>106891.8593742394</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="C4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="D4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="E4" t="n">
         <v>50852.65536393008</v>
       </c>
       <c r="F4" t="n">
-        <v>50852.65536393007</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="G4" t="n">
         <v>50852.65536393008</v>
       </c>
       <c r="H4" t="n">
-        <v>50852.65536393007</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="I4" t="n">
-        <v>50852.65536393007</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="J4" t="n">
         <v>50852.65536393008</v>
@@ -26453,13 +26453,13 @@
         <v>50852.65536393008</v>
       </c>
       <c r="N4" t="n">
-        <v>50852.65536393007</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="O4" t="n">
         <v>50852.65536393008</v>
       </c>
       <c r="P4" t="n">
-        <v>50852.65536393008</v>
+        <v>50852.65536393007</v>
       </c>
     </row>
     <row r="5">
@@ -26502,7 +26502,7 @@
         <v>36091.33751189047</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189048</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189047</v>
@@ -26511,7 +26511,7 @@
         <v>36091.33751189047</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197587.2608746495</v>
+        <v>197542.5970325977</v>
       </c>
       <c r="C6" t="n">
-        <v>197587.2608746495</v>
+        <v>197542.5970325975</v>
       </c>
       <c r="D6" t="n">
-        <v>197587.2608746495</v>
+        <v>197542.5970325976</v>
       </c>
       <c r="E6" t="n">
-        <v>-208303.9570039177</v>
+        <v>-217873.814469068</v>
       </c>
       <c r="F6" t="n">
-        <v>288749.1948135748</v>
+        <v>279179.3373484244</v>
       </c>
       <c r="G6" t="n">
-        <v>288749.1948135749</v>
+        <v>279179.3373484245</v>
       </c>
       <c r="H6" t="n">
-        <v>288749.1948135748</v>
+        <v>279179.3373484245</v>
       </c>
       <c r="I6" t="n">
-        <v>288749.1948135748</v>
+        <v>279179.3373484246</v>
       </c>
       <c r="J6" t="n">
-        <v>288749.1948135746</v>
+        <v>279179.3373484245</v>
       </c>
       <c r="K6" t="n">
-        <v>288749.1948135748</v>
+        <v>279179.3373484245</v>
       </c>
       <c r="L6" t="n">
-        <v>288749.1948135745</v>
+        <v>279179.3373484245</v>
       </c>
       <c r="M6" t="n">
-        <v>181857.3354393354</v>
+        <v>172287.4779741852</v>
       </c>
       <c r="N6" t="n">
-        <v>288749.1948135749</v>
+        <v>279179.3373484247</v>
       </c>
       <c r="O6" t="n">
-        <v>288749.1948135747</v>
+        <v>279179.3373484244</v>
       </c>
       <c r="P6" t="n">
-        <v>288749.1948135748</v>
+        <v>279179.3373484247</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
         <v>459.2752909409238</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26810,19 +26810,19 @@
         <v>428.9331606805646</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805648</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805646</v>
@@ -26831,7 +26831,7 @@
         <v>428.9331606805646</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.850004624446615e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805649</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.850004624446615e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31764,16 +31764,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
         <v>311.0863102573771</v>
@@ -31782,16 +31782,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R11" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I12" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
         <v>256.9298629953381</v>
@@ -31864,16 +31864,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I13" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31940,7 +31940,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R13" t="n">
         <v>37.2389440818657</v>
@@ -31952,7 +31952,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J17" t="n">
         <v>156.7051908522502</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H18" t="n">
         <v>9.540794251433153</v>
@@ -32314,7 +32314,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
@@ -32344,7 +32344,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
         <v>0.06499178645390433</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K19" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
         <v>129.8243252736778</v>
@@ -32420,13 +32420,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
         <v>156.7051908522502</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H21" t="n">
         <v>9.540794251433153</v>
@@ -32551,7 +32551,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32581,7 +32581,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
         <v>0.06499178645390433</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K22" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L22" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
         <v>129.8243252736778</v>
@@ -32657,13 +32657,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
         <v>156.7051908522502</v>
@@ -32715,19 +32715,19 @@
         <v>234.8604594573931</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
         <v>324.1998891675597</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O23" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
         <v>199.3831741692329</v>
@@ -32736,10 +32736,10 @@
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
@@ -32803,25 +32803,25 @@
         <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943132</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881897</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I25" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L25" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M25" t="n">
         <v>129.8243252736778</v>
@@ -32882,25 +32882,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P25" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
         <v>156.7051908522502</v>
@@ -32952,19 +32952,19 @@
         <v>234.8604594573931</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
         <v>324.1998891675597</v>
       </c>
       <c r="N26" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O26" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P26" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
         <v>199.3831741692329</v>
@@ -32973,10 +32973,10 @@
         <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H27" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I27" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33040,25 +33040,25 @@
         <v>256.9298629953381</v>
       </c>
       <c r="O27" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P27" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943132</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881897</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I28" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L28" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M28" t="n">
         <v>129.8243252736778</v>
@@ -33119,25 +33119,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O28" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P28" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R28" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
         <v>156.7051908522502</v>
@@ -33189,19 +33189,19 @@
         <v>234.8604594573931</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
         <v>324.1998891675597</v>
       </c>
       <c r="N29" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O29" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
         <v>199.3831741692329</v>
@@ -33210,10 +33210,10 @@
         <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H30" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I30" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33277,25 +33277,25 @@
         <v>256.9298629953381</v>
       </c>
       <c r="O30" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P30" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943132</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881897</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I31" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L31" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M31" t="n">
         <v>129.8243252736778</v>
@@ -33356,25 +33356,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O31" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P31" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R31" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
         <v>156.7051908522502</v>
@@ -33426,19 +33426,19 @@
         <v>234.8604594573931</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
         <v>324.1998891675597</v>
       </c>
       <c r="N32" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O32" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P32" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
         <v>199.3831741692329</v>
@@ -33447,10 +33447,10 @@
         <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H33" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I33" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33514,25 +33514,25 @@
         <v>256.9298629953381</v>
       </c>
       <c r="O33" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P33" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943132</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881897</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I34" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L34" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M34" t="n">
         <v>129.8243252736778</v>
@@ -33593,25 +33593,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O34" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P34" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R34" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
         <v>156.7051908522502</v>
@@ -33663,19 +33663,19 @@
         <v>234.8604594573931</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
         <v>324.1998891675597</v>
       </c>
       <c r="N35" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O35" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P35" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
         <v>199.3831741692329</v>
@@ -33684,10 +33684,10 @@
         <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H36" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I36" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33751,25 +33751,25 @@
         <v>256.9298629953381</v>
       </c>
       <c r="O36" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P36" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943132</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881897</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I37" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L37" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M37" t="n">
         <v>129.8243252736778</v>
@@ -33830,25 +33830,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O37" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P37" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R37" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
         <v>156.7051908522502</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H39" t="n">
         <v>9.540794251433153</v>
@@ -33973,7 +33973,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
@@ -34003,7 +34003,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
         <v>0.06499178645390433</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K40" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L40" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M40" t="n">
         <v>129.8243252736778</v>
@@ -34079,13 +34079,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
         <v>156.7051908522502</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
         <v>9.540794251433153</v>
@@ -34210,7 +34210,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
@@ -34240,7 +34240,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
         <v>0.06499178645390433</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M43" t="n">
         <v>129.8243252736778</v>
@@ -34316,13 +34316,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
         <v>156.7051908522502</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
         <v>9.540794251433153</v>
@@ -34447,7 +34447,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
@@ -34477,7 +34477,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
         <v>0.06499178645390433</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M46" t="n">
         <v>129.8243252736778</v>
@@ -34553,13 +34553,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
         <v>277.1250097811783</v>
@@ -35430,7 +35430,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.0864351299623</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
-        <v>378.678393487941</v>
+        <v>203.2996934668282</v>
       </c>
       <c r="N12" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K17" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
         <v>332.9626517459645</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082177</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518972</v>
@@ -35974,16 +35974,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.3068328282941</v>
+        <v>303.0842232378717</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802598</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151268</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M19" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O19" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
         <v>332.9626517459645</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082177</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K21" t="n">
         <v>162.7270914936593</v>
@@ -36211,16 +36211,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>211.6305083063587</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867617</v>
+        <v>120.6196694648265</v>
       </c>
       <c r="P21" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151268</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L22" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M22" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O22" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082178</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
@@ -36445,19 +36445,19 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>378.678393487941</v>
+        <v>274.4557838975186</v>
       </c>
       <c r="N24" t="n">
-        <v>211.630508306359</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085355</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151269</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692046</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793126</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L26" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O26" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P26" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082178</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
@@ -36685,16 +36685,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>407.3068328282941</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584861</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P27" t="n">
-        <v>231.5559236085355</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151269</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M28" t="n">
-        <v>76.00912912692046</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793126</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O29" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P29" t="n">
         <v>191.9262766422086</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518972</v>
@@ -36925,13 +36925,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>303.6443854593079</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P30" t="n">
-        <v>231.5559236085355</v>
+        <v>127.3333140181132</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151269</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M31" t="n">
-        <v>76.00912912692046</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793126</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O32" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P32" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082178</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323692</v>
       </c>
       <c r="L33" t="n">
-        <v>90.08643512996218</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
         <v>378.678393487941</v>
@@ -37165,10 +37165,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P33" t="n">
-        <v>231.5559236085355</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151269</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M34" t="n">
-        <v>76.00912912692046</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793126</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P35" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082178</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>162.7270914936593</v>
@@ -37402,10 +37402,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P36" t="n">
-        <v>35.8795990866009</v>
+        <v>56.17722358742201</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151269</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M37" t="n">
-        <v>76.00912912692046</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793126</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
         <v>277.1250097811783</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082177</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
@@ -37630,10 +37630,10 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
-        <v>378.678393487941</v>
+        <v>183.0020689660056</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063592</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867617</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151268</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L40" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M40" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O40" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
         <v>332.9626517459645</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082177</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K42" t="n">
         <v>162.7270914936593</v>
@@ -37867,7 +37867,7 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
-        <v>378.678393487941</v>
+        <v>183.0020689660056</v>
       </c>
       <c r="N42" t="n">
         <v>407.3068328282941</v>
@@ -37876,10 +37876,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87959908660067</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151268</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
         <v>332.9626517459645</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M45" t="n">
-        <v>378.678393487941</v>
+        <v>366.0267849604867</v>
       </c>
       <c r="N45" t="n">
         <v>407.3068328282941</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.50448190323728</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
